--- a/Exp2022/Заповедник/Путевые и маршрутные листы/Акт группового учета ГСМ за АВГУСТ 2022.xlsx
+++ b/Exp2022/Заповедник/Путевые и маршрутные листы/Акт группового учета ГСМ за АВГУСТ 2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>Приложение № 10</t>
   </si>
@@ -94,10 +94,10 @@
     <t>Пробег</t>
   </si>
   <si>
-    <t>9/29</t>
+    <t>10/29</t>
   </si>
   <si>
-    <t>47/83</t>
+    <t>80/83</t>
   </si>
   <si>
     <t>Расход</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>2. Масло 4-х тактное</t>
+  </si>
+  <si>
+    <t>0.07</t>
   </si>
   <si>
     <t>3.</t>
@@ -195,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0000000"/>
   </numFmts>
   <fonts count="37">
@@ -306,36 +309,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -364,6 +337,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -372,11 +375,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,7 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,13 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -427,23 +437,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +503,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,25 +575,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,25 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,97 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,17 +839,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +873,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -877,24 +898,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,148 +941,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,8 +1581,8 @@
   <sheetPr/>
   <dimension ref="A2:CB120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44:AF44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AQ32" sqref="AQ32:AV32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.71296296296296" defaultRowHeight="12.75" customHeight="1"/>
@@ -3930,7 +3933,9 @@
       <c r="T40" s="22"/>
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
-      <c r="W40" s="28"/>
+      <c r="W40" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="X40" s="28"/>
       <c r="Y40" s="28"/>
       <c r="Z40" s="22"/>
@@ -3981,7 +3986,7 @@
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A41" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -4065,7 +4070,7 @@
     </row>
     <row r="42" s="4" customFormat="1" ht="21.75" customHeight="1" spans="1:80">
       <c r="A42" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -4149,7 +4154,7 @@
     </row>
     <row r="43" s="4" customFormat="1" ht="22.5" customHeight="1" spans="1:80">
       <c r="A43" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -4549,7 +4554,7 @@
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A47" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4633,7 +4638,7 @@
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A48" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -4717,7 +4722,7 @@
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A49" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -4801,7 +4806,7 @@
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A50" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -4885,7 +4890,7 @@
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A51" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -4969,7 +4974,7 @@
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A52" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -5053,7 +5058,7 @@
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A53" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -5137,7 +5142,7 @@
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A54" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -5221,7 +5226,7 @@
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A55" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -5305,7 +5310,7 @@
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A56" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5389,7 +5394,7 @@
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A57" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5473,7 +5478,7 @@
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A58" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5557,7 +5562,7 @@
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A59" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5641,7 +5646,7 @@
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A60" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5725,7 +5730,7 @@
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A61" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -5809,7 +5814,7 @@
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A62" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -5893,7 +5898,7 @@
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A63" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -5977,7 +5982,7 @@
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A64" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -6061,7 +6066,7 @@
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A65" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -6145,7 +6150,7 @@
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A66" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -6229,7 +6234,7 @@
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A67" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -6313,7 +6318,7 @@
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A68" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -6397,7 +6402,7 @@
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A69" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -6481,7 +6486,7 @@
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A70" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -6565,7 +6570,7 @@
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A71" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -6649,7 +6654,7 @@
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A72" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -6733,7 +6738,7 @@
     </row>
     <row r="73" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A73" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -6817,7 +6822,7 @@
     </row>
     <row r="74" s="4" customFormat="1" customHeight="1" spans="1:80">
       <c r="A74" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -7124,7 +7129,7 @@
     </row>
     <row r="78" s="4" customFormat="1" customHeight="1" spans="1:55">
       <c r="A78" s="49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
@@ -7167,7 +7172,7 @@
       <c r="AN78" s="49"/>
       <c r="AO78" s="6"/>
       <c r="AP78" s="49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AQ78" s="49"/>
       <c r="AR78" s="49"/>
@@ -7185,7 +7190,7 @@
     </row>
     <row r="79" s="4" customFormat="1" customHeight="1" spans="1:55">
       <c r="A79" s="53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
@@ -7209,7 +7214,7 @@
       <c r="U79" s="53"/>
       <c r="V79" s="6"/>
       <c r="W79" s="53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X79" s="53"/>
       <c r="Y79" s="53"/>
@@ -7230,7 +7235,7 @@
       <c r="AN79" s="53"/>
       <c r="AO79" s="6"/>
       <c r="AP79" s="53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ79" s="53"/>
       <c r="AR79" s="53"/>
